--- a/Output/s curve.xlsx
+++ b/Output/s curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Mango\PM\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D43490-38FC-42E4-9697-DBB139699E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B110846-BA9C-4B1D-96DF-7BE0328914D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{52F84A67-958B-4D9E-AFD4-47C8020DF9C7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{0D0077B7-630E-498F-B11E-D9652D37A4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="s curve" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
-    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{A7754510-F1DE-42D0-9669-47C448328FC2}"/>
+    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{3100740C-1E04-4D98-BE2A-06A9D3D9D313}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF37607-53CC-4F86-B00E-FB358D35AA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E24BF71-2091-417C-B444-8F827BE97005}">
   <dimension ref="A1:CM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
